--- a/Design/DataTable/MonsterLevel.xlsx
+++ b/Design/DataTable/MonsterLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E853C3-A047-422D-8D12-766C5901FD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8C4DF1-5C59-448F-BB29-DB22307410AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{511488C8-9FA5-4625-9CCD-4AB5F3883DA3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,32 +446,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088376B9-BA4E-49CB-9CF9-D42B06A84A35}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -471,55 +484,67 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
       <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -527,18 +552,24 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>10</v>
       </c>
     </row>

--- a/Design/DataTable/MonsterLevel.xlsx
+++ b/Design/DataTable/MonsterLevel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8C4DF1-5C59-448F-BB29-DB22307410AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF7BCD0-B0B6-42F7-B2F2-650671B31D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{511488C8-9FA5-4625-9CCD-4AB5F3883DA3}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>

--- a/Design/DataTable/MonsterLevel.xlsx
+++ b/Design/DataTable/MonsterLevel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강민재\Documents\GitHub\PlumTowerDefecne\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF7BCD0-B0B6-42F7-B2F2-650671B31D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E08F6C0-81AA-4B24-930D-55A6B2ACDEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{511488C8-9FA5-4625-9CCD-4AB5F3883DA3}"/>
   </bookViews>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088376B9-BA4E-49CB-9CF9-D42B06A84A35}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -571,6 +571,23 @@
       </c>
       <c r="E7" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/MonsterLevel.xlsx
+++ b/Design/DataTable/MonsterLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E08F6C0-81AA-4B24-930D-55A6B2ACDEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8718E0-20F3-4CB1-951F-F25E31AF5E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{511488C8-9FA5-4625-9CCD-4AB5F3883DA3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
